--- a/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
+++ b/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>33.02707361943494</v>
+        <v>32.65649497326221</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>20.33482723877618</v>
+        <v>20.28931771250522</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>11.77382917487084</v>
+        <v>10.88818274548866</v>
       </c>
     </row>
     <row r="5">
@@ -406,17 +406,17 @@
         </is>
       </c>
       <c r="B5">
-        <v>9.645149952678679</v>
+        <v>10.10659849887708</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Chla</t>
         </is>
       </c>
       <c r="B6">
-        <v>6.943465806251817</v>
+        <v>6.567701009010366</v>
       </c>
     </row>
     <row r="7">
@@ -426,17 +426,17 @@
         </is>
       </c>
       <c r="B7">
-        <v>6.492188029916274</v>
+        <v>6.53161363692105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chla</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B8">
-        <v>6.068375321830223</v>
+        <v>6.51892848836005</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>5.715090856241043</v>
+        <v>6.441162935575368</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
+++ b/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
@@ -376,77 +376,77 @@
         </is>
       </c>
       <c r="B2">
-        <v>32.65649497326221</v>
+        <v>40.45116925475303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SSTmean</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B3">
-        <v>20.28931771250522</v>
+        <v>16.92795473082358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BottomDepth</t>
+          <t>Chla</t>
         </is>
       </c>
       <c r="B4">
-        <v>10.88818274548866</v>
+        <v>16.34148171596571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EastwardVelocity</t>
+          <t>NorthwardVelocity</t>
         </is>
       </c>
       <c r="B5">
-        <v>10.10659849887708</v>
+        <v>9.012376557536173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chla</t>
+          <t>BottomDepth</t>
         </is>
       </c>
       <c r="B6">
-        <v>6.567701009010366</v>
+        <v>8.277604663569484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>seafloorTemp</t>
+          <t>EastwardVelocity</t>
         </is>
       </c>
       <c r="B7">
-        <v>6.53161363692105</v>
+        <v>5.587573224341632</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>SSTmean</t>
         </is>
       </c>
       <c r="B8">
-        <v>6.51892848836005</v>
+        <v>1.936097715055023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NorthwardVelocity</t>
+          <t>seafloorTemp</t>
         </is>
       </c>
       <c r="B9">
-        <v>6.441162935575368</v>
+        <v>1.465742137955359</v>
       </c>
     </row>
   </sheetData>
